--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141082EC-C00F-4834-9B59-C2C3273FDA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183231BD-23A4-4548-978B-E5EC8B94D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -214,25 +214,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -625,872 +624,871 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C2" s="6">
+      <c r="C2">
         <v>2024</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <f t="shared" ref="D2:W2" si="0">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
     </row>
     <row r="3" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>30500</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>C3*1.031</f>
         <v>31445.499999999996</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:V3" si="1">D3*1.031</f>
         <v>32420.310499999992</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" si="1"/>
         <v>33425.340125499992</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" si="1"/>
         <v>34461.525669390488</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>35529.832965141592</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>36631.257787060975</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f t="shared" si="1"/>
         <v>37766.826778459865</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f t="shared" si="1"/>
         <v>38937.598408592115</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f t="shared" si="1"/>
         <v>40144.663959258469</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f t="shared" si="1"/>
         <v>41389.148541995477</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f t="shared" si="1"/>
         <v>42672.212146797334</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <f t="shared" si="1"/>
         <v>43995.050723348046</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <f t="shared" si="1"/>
         <v>45358.897295771829</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f t="shared" si="1"/>
         <v>46765.023111940754</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
         <v>48214.738828410911</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <f t="shared" si="1"/>
         <v>49709.395732091645</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <f t="shared" si="1"/>
         <v>51250.386999786482</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <f t="shared" si="1"/>
         <v>52839.148996779855</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <f t="shared" si="1"/>
         <v>54477.162615680027</v>
       </c>
     </row>
     <row r="4" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>C5*0.975</f>
         <v>0.11699999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:V5" si="2">D5*0.975</f>
         <v>0.114075</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="2"/>
         <v>0.11122312499999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="2"/>
         <v>0.10844254687499999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>0.10573148320312499</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f t="shared" si="2"/>
         <v>0.10308819612304686</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>0.10051099121997069</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>9.7998216439471417E-2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" si="2"/>
         <v>9.5548261028484627E-2</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" si="2"/>
         <v>9.315955450277251E-2</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" si="2"/>
         <v>9.0830565640203198E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="2"/>
         <v>8.8559801499198121E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f t="shared" si="2"/>
         <v>8.6345806461718161E-2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="2"/>
         <v>8.4187161300175201E-2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="2"/>
         <v>8.2082482267670814E-2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" si="2"/>
         <v>8.0030420210979045E-2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="2"/>
         <v>7.8029659705704565E-2</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="2"/>
         <v>7.6078918213061952E-2</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" si="2"/>
         <v>7.4176945257735397E-2</v>
       </c>
     </row>
     <row r="6" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7">
-        <f>C5*C3</f>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:V6" si="3">C5*C3</f>
         <v>3660</v>
       </c>
-      <c r="D6" s="7">
-        <f>D5*D3</f>
+      <c r="D6" s="6">
+        <f t="shared" si="3"/>
         <v>3679.1234999999992</v>
       </c>
-      <c r="E6" s="7">
-        <f>E5*E3</f>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
         <v>3698.346920287499</v>
       </c>
-      <c r="F6" s="7">
-        <f>F5*F3</f>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
         <v>3717.6707829460011</v>
       </c>
-      <c r="G6" s="7">
-        <f>G5*G3</f>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
         <v>3737.0956127868935</v>
       </c>
-      <c r="H6" s="7">
-        <f>H5*H3</f>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
         <v>3756.6219373637045</v>
       </c>
-      <c r="I6" s="7">
-        <f>I5*I3</f>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
         <v>3776.2502869864293</v>
       </c>
-      <c r="J6" s="7">
-        <f>J5*J3</f>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
         <v>3795.9811947359335</v>
       </c>
-      <c r="K6" s="7">
-        <f>K5*K3</f>
+      <c r="K6" s="6">
+        <f t="shared" si="3"/>
         <v>3815.8151964784279</v>
       </c>
-      <c r="L6" s="7">
-        <f>L5*L3</f>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
         <v>3835.7528308800274</v>
       </c>
-      <c r="M6" s="7">
-        <f>M5*M3</f>
+      <c r="M6" s="6">
+        <f t="shared" si="3"/>
         <v>3855.794639421375</v>
       </c>
-      <c r="N6" s="7">
-        <f>N5*N3</f>
+      <c r="N6" s="6">
+        <f t="shared" si="3"/>
         <v>3875.9411664123513</v>
       </c>
-      <c r="O6" s="7">
-        <f>O5*O3</f>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
         <v>3896.1929590068557</v>
       </c>
-      <c r="P6" s="7">
-        <f>P5*P3</f>
+      <c r="P6" s="6">
+        <f t="shared" si="3"/>
         <v>3916.5505672176655</v>
       </c>
-      <c r="Q6" s="7">
-        <f>Q5*Q3</f>
+      <c r="Q6" s="6">
+        <f t="shared" si="3"/>
         <v>3937.0145439313774</v>
       </c>
-      <c r="R6" s="7">
-        <f>R5*R3</f>
+      <c r="R6" s="6">
+        <f t="shared" si="3"/>
         <v>3957.585444923418</v>
       </c>
-      <c r="S6" s="7">
-        <f>S5*S3</f>
+      <c r="S6" s="6">
+        <f t="shared" si="3"/>
         <v>3978.2638288731428</v>
       </c>
-      <c r="T6" s="7">
-        <f>T5*T3</f>
+      <c r="T6" s="6">
+        <f t="shared" si="3"/>
         <v>3999.0502573790045</v>
       </c>
-      <c r="U6" s="7">
-        <f>U5*U3</f>
+      <c r="U6" s="6">
+        <f t="shared" si="3"/>
         <v>4019.9452949738093</v>
       </c>
-      <c r="V6" s="7">
-        <f>V5*V3</f>
+      <c r="V6" s="6">
+        <f t="shared" si="3"/>
         <v>4040.9495091400468</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <f>V6*1.031</f>
         <v>4166.218943923388</v>
       </c>
-      <c r="X6" s="7">
-        <f t="shared" ref="X6:CI6" si="3">W6*1.031</f>
+      <c r="X6" s="6">
+        <f t="shared" ref="X6:CI6" si="4">W6*1.031</f>
         <v>4295.3717311850123</v>
       </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="3"/>
+      <c r="Y6" s="6">
+        <f t="shared" si="4"/>
         <v>4428.5282548517471</v>
       </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="6">
+        <f t="shared" si="4"/>
         <v>4565.8126307521507</v>
       </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="6">
+        <f t="shared" si="4"/>
         <v>4707.3528223054673</v>
       </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AB6" s="6">
+        <f t="shared" si="4"/>
         <v>4853.2807597969368</v>
       </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AC6" s="6">
+        <f t="shared" si="4"/>
         <v>5003.7324633506414</v>
       </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AD6" s="6">
+        <f t="shared" si="4"/>
         <v>5158.8481697145107</v>
       </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AE6" s="6">
+        <f t="shared" si="4"/>
         <v>5318.7724629756603</v>
       </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AF6" s="6">
+        <f t="shared" si="4"/>
         <v>5483.6544093279053</v>
       </c>
-      <c r="AG6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AG6" s="6">
+        <f t="shared" si="4"/>
         <v>5653.6476960170703</v>
       </c>
-      <c r="AH6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AH6" s="6">
+        <f t="shared" si="4"/>
         <v>5828.9107745935989</v>
       </c>
-      <c r="AI6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI6" s="6">
+        <f t="shared" si="4"/>
         <v>6009.6070086059999</v>
       </c>
-      <c r="AJ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AJ6" s="6">
+        <f t="shared" si="4"/>
         <v>6195.9048258727853</v>
       </c>
-      <c r="AK6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AK6" s="6">
+        <f t="shared" si="4"/>
         <v>6387.9778754748413</v>
       </c>
-      <c r="AL6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AL6" s="6">
+        <f t="shared" si="4"/>
         <v>6586.0051896145605</v>
       </c>
-      <c r="AM6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AM6" s="6">
+        <f t="shared" si="4"/>
         <v>6790.1713504926111</v>
       </c>
-      <c r="AN6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AN6" s="6">
+        <f t="shared" si="4"/>
         <v>7000.6666623578813</v>
       </c>
-      <c r="AO6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AO6" s="6">
+        <f t="shared" si="4"/>
         <v>7217.6873288909746</v>
       </c>
-      <c r="AP6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AP6" s="6">
+        <f t="shared" si="4"/>
         <v>7441.4356360865941</v>
       </c>
-      <c r="AQ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AQ6" s="6">
+        <f t="shared" si="4"/>
         <v>7672.1201408052775</v>
       </c>
-      <c r="AR6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AR6" s="6">
+        <f t="shared" si="4"/>
         <v>7909.95586517024</v>
       </c>
-      <c r="AS6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AS6" s="6">
+        <f t="shared" si="4"/>
         <v>8155.1644969905165</v>
       </c>
-      <c r="AT6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AT6" s="6">
+        <f t="shared" si="4"/>
         <v>8407.9745963972218</v>
       </c>
-      <c r="AU6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AU6" s="6">
+        <f t="shared" si="4"/>
         <v>8668.6218088855348</v>
       </c>
-      <c r="AV6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AV6" s="6">
+        <f t="shared" si="4"/>
         <v>8937.3490849609861</v>
       </c>
-      <c r="AW6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AW6" s="6">
+        <f t="shared" si="4"/>
         <v>9214.4069065947751</v>
       </c>
-      <c r="AX6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AX6" s="6">
+        <f t="shared" si="4"/>
         <v>9500.0535206992117</v>
       </c>
-      <c r="AY6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AY6" s="6">
+        <f t="shared" si="4"/>
         <v>9794.5551798408869</v>
       </c>
-      <c r="AZ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="AZ6" s="6">
+        <f t="shared" si="4"/>
         <v>10098.186390415953</v>
       </c>
-      <c r="BA6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BA6" s="6">
+        <f t="shared" si="4"/>
         <v>10411.230168518847</v>
       </c>
-      <c r="BB6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BB6" s="6">
+        <f t="shared" si="4"/>
         <v>10733.97830374293</v>
       </c>
-      <c r="BC6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BC6" s="6">
+        <f t="shared" si="4"/>
         <v>11066.73163115896</v>
       </c>
-      <c r="BD6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BD6" s="6">
+        <f t="shared" si="4"/>
         <v>11409.800311724886</v>
       </c>
-      <c r="BE6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BE6" s="6">
+        <f t="shared" si="4"/>
         <v>11763.504121388356</v>
       </c>
-      <c r="BF6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BF6" s="6">
+        <f t="shared" si="4"/>
         <v>12128.172749151394</v>
       </c>
-      <c r="BG6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BG6" s="6">
+        <f t="shared" si="4"/>
         <v>12504.146104375086</v>
       </c>
-      <c r="BH6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BH6" s="6">
+        <f t="shared" si="4"/>
         <v>12891.774633610712</v>
       </c>
-      <c r="BI6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BI6" s="6">
+        <f t="shared" si="4"/>
         <v>13291.419647252644</v>
       </c>
-      <c r="BJ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BJ6" s="6">
+        <f t="shared" si="4"/>
         <v>13703.453656317475</v>
       </c>
-      <c r="BK6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BK6" s="6">
+        <f t="shared" si="4"/>
         <v>14128.260719663316</v>
       </c>
-      <c r="BL6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BL6" s="6">
+        <f t="shared" si="4"/>
         <v>14566.236801972878</v>
       </c>
-      <c r="BM6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BM6" s="6">
+        <f t="shared" si="4"/>
         <v>15017.790142834036</v>
       </c>
-      <c r="BN6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BN6" s="6">
+        <f t="shared" si="4"/>
         <v>15483.341637261889</v>
       </c>
-      <c r="BO6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BO6" s="6">
+        <f t="shared" si="4"/>
         <v>15963.325228017005</v>
       </c>
-      <c r="BP6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BP6" s="6">
+        <f t="shared" si="4"/>
         <v>16458.18831008553</v>
       </c>
-      <c r="BQ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BQ6" s="6">
+        <f t="shared" si="4"/>
         <v>16968.392147698181</v>
       </c>
-      <c r="BR6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BR6" s="6">
+        <f t="shared" si="4"/>
         <v>17494.412304276822</v>
       </c>
-      <c r="BS6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BS6" s="6">
+        <f t="shared" si="4"/>
         <v>18036.739085709403</v>
       </c>
-      <c r="BT6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BT6" s="6">
+        <f t="shared" si="4"/>
         <v>18595.877997366395</v>
       </c>
-      <c r="BU6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BU6" s="6">
+        <f t="shared" si="4"/>
         <v>19172.35021528475</v>
       </c>
-      <c r="BV6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BV6" s="6">
+        <f t="shared" si="4"/>
         <v>19766.693071958576</v>
       </c>
-      <c r="BW6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BW6" s="6">
+        <f t="shared" si="4"/>
         <v>20379.46055718929</v>
       </c>
-      <c r="BX6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BX6" s="6">
+        <f t="shared" si="4"/>
         <v>21011.223834462155</v>
       </c>
-      <c r="BY6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BY6" s="6">
+        <f t="shared" si="4"/>
         <v>21662.571773330481</v>
       </c>
-      <c r="BZ6" s="7">
-        <f t="shared" si="3"/>
+      <c r="BZ6" s="6">
+        <f t="shared" si="4"/>
         <v>22334.111498303722</v>
       </c>
-      <c r="CA6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CA6" s="6">
+        <f t="shared" si="4"/>
         <v>23026.468954751137</v>
       </c>
-      <c r="CB6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CB6" s="6">
+        <f t="shared" si="4"/>
         <v>23740.28949234842</v>
       </c>
-      <c r="CC6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CC6" s="6">
+        <f t="shared" si="4"/>
         <v>24476.238466611219</v>
       </c>
-      <c r="CD6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CD6" s="6">
+        <f t="shared" si="4"/>
         <v>25235.001859076165</v>
       </c>
-      <c r="CE6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CE6" s="6">
+        <f t="shared" si="4"/>
         <v>26017.286916707522</v>
       </c>
-      <c r="CF6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CF6" s="6">
+        <f t="shared" si="4"/>
         <v>26823.822811125454</v>
       </c>
-      <c r="CG6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CG6" s="6">
+        <f t="shared" si="4"/>
         <v>27655.361318270341</v>
       </c>
-      <c r="CH6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CH6" s="6">
+        <f t="shared" si="4"/>
         <v>28512.67751913672</v>
       </c>
-      <c r="CI6" s="7">
-        <f t="shared" si="3"/>
+      <c r="CI6" s="6">
+        <f t="shared" si="4"/>
         <v>29396.570522229955</v>
       </c>
-      <c r="CJ6" s="7">
-        <f t="shared" ref="CJ6:DV6" si="4">CI6*1.031</f>
+      <c r="CJ6" s="6">
+        <f t="shared" ref="CJ6:DV6" si="5">CI6*1.031</f>
         <v>30307.86420841908</v>
       </c>
-      <c r="CK6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CK6" s="6">
+        <f t="shared" si="5"/>
         <v>31247.407998880069</v>
       </c>
-      <c r="CL6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CL6" s="6">
+        <f t="shared" si="5"/>
         <v>32216.077646845348</v>
       </c>
-      <c r="CM6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CM6" s="6">
+        <f t="shared" si="5"/>
         <v>33214.776053897549</v>
       </c>
-      <c r="CN6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CN6" s="6">
+        <f t="shared" si="5"/>
         <v>34244.434111568371</v>
       </c>
-      <c r="CO6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CO6" s="6">
+        <f t="shared" si="5"/>
         <v>35306.011569026989</v>
       </c>
-      <c r="CP6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CP6" s="6">
+        <f t="shared" si="5"/>
         <v>36400.497927666824</v>
       </c>
-      <c r="CQ6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CQ6" s="6">
+        <f t="shared" si="5"/>
         <v>37528.913363424494</v>
       </c>
-      <c r="CR6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CR6" s="6">
+        <f t="shared" si="5"/>
         <v>38692.309677690653</v>
       </c>
-      <c r="CS6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CS6" s="6">
+        <f t="shared" si="5"/>
         <v>39891.771277699059</v>
       </c>
-      <c r="CT6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CT6" s="6">
+        <f t="shared" si="5"/>
         <v>41128.416187307725</v>
       </c>
-      <c r="CU6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CU6" s="6">
+        <f t="shared" si="5"/>
         <v>42403.39708911426</v>
       </c>
-      <c r="CV6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CV6" s="6">
+        <f t="shared" si="5"/>
         <v>43717.902398876795</v>
       </c>
-      <c r="CW6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CW6" s="6">
+        <f t="shared" si="5"/>
         <v>45073.157373241971</v>
       </c>
-      <c r="CX6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CX6" s="6">
+        <f t="shared" si="5"/>
         <v>46470.42525181247</v>
       </c>
-      <c r="CY6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CY6" s="6">
+        <f t="shared" si="5"/>
         <v>47911.008434618656</v>
       </c>
-      <c r="CZ6" s="7">
-        <f t="shared" si="4"/>
+      <c r="CZ6" s="6">
+        <f t="shared" si="5"/>
         <v>49396.249696091829</v>
       </c>
-      <c r="DA6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DA6" s="6">
+        <f t="shared" si="5"/>
         <v>50927.533436670674</v>
       </c>
-      <c r="DB6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DB6" s="6">
+        <f t="shared" si="5"/>
         <v>52506.286973207461</v>
       </c>
-      <c r="DC6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DC6" s="6">
+        <f t="shared" si="5"/>
         <v>54133.98186937689</v>
       </c>
-      <c r="DD6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DD6" s="6">
+        <f t="shared" si="5"/>
         <v>55812.135307327568</v>
       </c>
-      <c r="DE6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DE6" s="6">
+        <f t="shared" si="5"/>
         <v>57542.311501854718</v>
       </c>
-      <c r="DF6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DF6" s="6">
+        <f t="shared" si="5"/>
         <v>59326.123158412207</v>
       </c>
-      <c r="DG6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DG6" s="6">
+        <f t="shared" si="5"/>
         <v>61165.232976322979</v>
       </c>
-      <c r="DH6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DH6" s="6">
+        <f t="shared" si="5"/>
         <v>63061.355198588986</v>
       </c>
-      <c r="DI6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DI6" s="6">
+        <f t="shared" si="5"/>
         <v>65016.257209745243</v>
       </c>
-      <c r="DJ6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DJ6" s="6">
+        <f t="shared" si="5"/>
         <v>67031.761183247334</v>
       </c>
-      <c r="DK6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DK6" s="6">
+        <f t="shared" si="5"/>
         <v>69109.745779927995</v>
       </c>
-      <c r="DL6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DL6" s="6">
+        <f t="shared" si="5"/>
         <v>71252.147899105752</v>
       </c>
-      <c r="DM6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DM6" s="6">
+        <f t="shared" si="5"/>
         <v>73460.964483978023</v>
       </c>
-      <c r="DN6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DN6" s="6">
+        <f t="shared" si="5"/>
         <v>75738.254382981337</v>
       </c>
-      <c r="DO6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DO6" s="6">
+        <f t="shared" si="5"/>
         <v>78086.140268853749</v>
       </c>
-      <c r="DP6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DP6" s="6">
+        <f t="shared" si="5"/>
         <v>80506.81061718821</v>
       </c>
-      <c r="DQ6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DQ6" s="6">
+        <f t="shared" si="5"/>
         <v>83002.521746321043</v>
       </c>
-      <c r="DR6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DR6" s="6">
+        <f t="shared" si="5"/>
         <v>85575.599920456982</v>
       </c>
-      <c r="DS6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DS6" s="6">
+        <f t="shared" si="5"/>
         <v>88228.443517991138</v>
       </c>
-      <c r="DT6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DT6" s="6">
+        <f t="shared" si="5"/>
         <v>90963.525267048855</v>
       </c>
-      <c r="DU6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DU6" s="6">
+        <f t="shared" si="5"/>
         <v>93783.394550327357</v>
       </c>
-      <c r="DV6" s="7">
-        <f t="shared" si="4"/>
+      <c r="DV6" s="6">
+        <f t="shared" si="5"/>
         <v>96690.679781387502</v>
       </c>
-      <c r="DW6" s="7">
-        <f t="shared" ref="DW6" si="5">DV6*1.031</f>
+      <c r="DW6" s="6">
+        <f t="shared" ref="DW6" si="6">DV6*1.031</f>
         <v>99688.090854610506</v>
       </c>
-      <c r="DX6" s="7">
-        <f t="shared" ref="DX6" si="6">DW6*1.031</f>
+      <c r="DX6" s="6">
+        <f t="shared" ref="DX6" si="7">DW6*1.031</f>
         <v>102778.42167110342</v>
       </c>
-      <c r="DY6" s="7">
-        <f t="shared" ref="DY6" si="7">DX6*1.031</f>
+      <c r="DY6" s="6">
+        <f t="shared" ref="DY6" si="8">DX6*1.031</f>
         <v>105964.55274290762</v>
       </c>
-      <c r="DZ6" s="7">
-        <f t="shared" ref="DZ6" si="8">DY6*1.031</f>
+      <c r="DZ6" s="6">
+        <f t="shared" ref="DZ6" si="9">DY6*1.031</f>
         <v>109249.45387793775</v>
       </c>
-      <c r="EA6" s="7">
-        <f t="shared" ref="EA6" si="9">DZ6*1.031</f>
+      <c r="EA6" s="6">
+        <f t="shared" ref="EA6" si="10">DZ6*1.031</f>
         <v>112636.1869481538</v>
       </c>
-      <c r="EB6" s="7">
-        <f t="shared" ref="EB6" si="10">EA6*1.031</f>
+      <c r="EB6" s="6">
+        <f t="shared" ref="EB6" si="11">EA6*1.031</f>
         <v>116127.90874354656</v>
       </c>
-      <c r="EC6" s="7">
-        <f t="shared" ref="EC6" si="11">EB6*1.031</f>
+      <c r="EC6" s="6">
+        <f t="shared" ref="EC6" si="12">EB6*1.031</f>
         <v>119727.87391459649</v>
       </c>
-      <c r="ED6" s="7">
-        <f t="shared" ref="ED6" si="12">EC6*1.031</f>
+      <c r="ED6" s="6">
+        <f t="shared" ref="ED6" si="13">EC6*1.031</f>
         <v>123439.43800594898</v>
       </c>
-      <c r="EE6" s="7">
-        <f t="shared" ref="EE6" si="13">ED6*1.031</f>
+      <c r="EE6" s="6">
+        <f t="shared" ref="EE6" si="14">ED6*1.031</f>
         <v>127266.06058413339</v>
       </c>
-      <c r="EF6" s="7">
-        <f t="shared" ref="EF6" si="14">EE6*1.031</f>
+      <c r="EF6" s="6">
+        <f t="shared" ref="EF6" si="15">EE6*1.031</f>
         <v>131211.30846224152</v>
       </c>
-      <c r="EG6" s="7">
-        <f t="shared" ref="EG6" si="15">EF6*1.031</f>
+      <c r="EG6" s="6">
+        <f t="shared" ref="EG6" si="16">EF6*1.031</f>
         <v>135278.85902457099</v>
       </c>
-      <c r="EH6" s="7">
-        <f t="shared" ref="EH6" si="16">EG6*1.031</f>
+      <c r="EH6" s="6">
+        <f t="shared" ref="EH6" si="17">EG6*1.031</f>
         <v>139472.50365433269</v>
       </c>
-      <c r="EI6" s="7">
-        <f t="shared" ref="EI6" si="17">EH6*1.031</f>
+      <c r="EI6" s="6">
+        <f t="shared" ref="EI6" si="18">EH6*1.031</f>
         <v>143796.15126761698</v>
       </c>
-      <c r="EJ6" s="7">
-        <f t="shared" ref="EJ6" si="18">EI6*1.031</f>
+      <c r="EJ6" s="6">
+        <f t="shared" ref="EJ6" si="19">EI6*1.031</f>
         <v>148253.83195691308</v>
       </c>
-      <c r="EK6" s="7">
-        <f t="shared" ref="EK6" si="19">EJ6*1.031</f>
+      <c r="EK6" s="6">
+        <f t="shared" ref="EK6" si="20">EJ6*1.031</f>
         <v>152849.70074757739</v>
       </c>
-      <c r="EL6" s="7">
-        <f t="shared" ref="EL6" si="20">EK6*1.031</f>
+      <c r="EL6" s="6">
+        <f t="shared" ref="EL6" si="21">EK6*1.031</f>
         <v>157588.04147075227</v>
       </c>
     </row>
     <row r="7" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1509,7 +1507,7 @@
         <f>D9/$D$11-1</f>
         <v>-0.22171449609402039</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1519,47 +1517,47 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>65500</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3.15E-2</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:142" x14ac:dyDescent="0.2">
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
@@ -1567,42 +1565,42 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1612,42 +1610,42 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <f>0.2*0.2*0.5</f>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="11"/>
+      <c r="C34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1690,13 +1688,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="12"/>
+      <c r="C3" s="11"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1704,43 +1702,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>3</v>
       </c>
       <c r="D15" t="s">
@@ -1751,76 +1749,76 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183231BD-23A4-4548-978B-E5EC8B94D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3312A796-BA06-4862-B8A9-C42FCB596A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -822,7 +822,7 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:V5" si="2">D5*0.975</f>
+        <f t="shared" ref="E5:P5" si="2">D5*0.975</f>
         <v>0.114075</v>
       </c>
       <c r="F5" s="7">
@@ -870,28 +870,22 @@
         <v>8.6345806461718161E-2</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="2"/>
-        <v>8.4187161300175201E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" si="2"/>
-        <v>8.2082482267670814E-2</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="2"/>
-        <v>8.0030420210979045E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" si="2"/>
-        <v>7.8029659705704565E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="2"/>
-        <v>7.6078918213061952E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="2"/>
-        <v>7.4176945257735397E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="2:142" x14ac:dyDescent="0.2">
@@ -956,507 +950,507 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="3"/>
-        <v>3937.0145439313774</v>
+        <v>3741.2018489552606</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="3"/>
-        <v>3957.585444923418</v>
+        <v>3857.179106272873</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="3"/>
-        <v>3978.2638288731428</v>
+        <v>3728.204679906873</v>
       </c>
       <c r="T6" s="6">
         <f t="shared" si="3"/>
-        <v>3999.0502573790045</v>
+        <v>3843.7790249839859</v>
       </c>
       <c r="U6" s="6">
         <f t="shared" si="3"/>
-        <v>4019.9452949738093</v>
+        <v>3962.936174758489</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" si="3"/>
-        <v>4040.9495091400468</v>
+        <v>4085.787196176002</v>
       </c>
       <c r="W6" s="6">
         <f>V6*1.031</f>
-        <v>4166.218943923388</v>
+        <v>4212.4465992574578</v>
       </c>
       <c r="X6" s="6">
         <f t="shared" ref="X6:CI6" si="4">W6*1.031</f>
-        <v>4295.3717311850123</v>
+        <v>4343.0324438344387</v>
       </c>
       <c r="Y6" s="6">
         <f t="shared" si="4"/>
-        <v>4428.5282548517471</v>
+        <v>4477.6664495933055</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="4"/>
-        <v>4565.8126307521507</v>
+        <v>4616.4741095306972</v>
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="4"/>
-        <v>4707.3528223054673</v>
+        <v>4759.5848069261483</v>
       </c>
       <c r="AB6" s="6">
         <f t="shared" si="4"/>
-        <v>4853.2807597969368</v>
+        <v>4907.1319359408581</v>
       </c>
       <c r="AC6" s="6">
         <f t="shared" si="4"/>
-        <v>5003.7324633506414</v>
+        <v>5059.253025955024</v>
       </c>
       <c r="AD6" s="6">
         <f t="shared" si="4"/>
-        <v>5158.8481697145107</v>
+        <v>5216.0898697596294</v>
       </c>
       <c r="AE6" s="6">
         <f t="shared" si="4"/>
-        <v>5318.7724629756603</v>
+        <v>5377.7886557221773</v>
       </c>
       <c r="AF6" s="6">
         <f t="shared" si="4"/>
-        <v>5483.6544093279053</v>
+        <v>5544.5001040495645</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" si="4"/>
-        <v>5653.6476960170703</v>
+        <v>5716.3796072751002</v>
       </c>
       <c r="AH6" s="6">
         <f t="shared" si="4"/>
-        <v>5828.9107745935989</v>
+        <v>5893.5873751006275</v>
       </c>
       <c r="AI6" s="6">
         <f t="shared" si="4"/>
-        <v>6009.6070086059999</v>
+        <v>6076.2885837287467</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="4"/>
-        <v>6195.9048258727853</v>
+        <v>6264.6535298243371</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="4"/>
-        <v>6387.9778754748413</v>
+        <v>6458.8577892488911</v>
       </c>
       <c r="AL6" s="6">
         <f t="shared" si="4"/>
-        <v>6586.0051896145605</v>
+        <v>6659.0823807156066</v>
       </c>
       <c r="AM6" s="6">
         <f t="shared" si="4"/>
-        <v>6790.1713504926111</v>
+        <v>6865.5139345177895</v>
       </c>
       <c r="AN6" s="6">
         <f t="shared" si="4"/>
-        <v>7000.6666623578813</v>
+        <v>7078.3448664878406</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="4"/>
-        <v>7217.6873288909746</v>
+        <v>7297.7735573489626</v>
       </c>
       <c r="AP6" s="6">
         <f t="shared" si="4"/>
-        <v>7441.4356360865941</v>
+        <v>7524.0045376267799</v>
       </c>
       <c r="AQ6" s="6">
         <f t="shared" si="4"/>
-        <v>7672.1201408052775</v>
+        <v>7757.2486782932092</v>
       </c>
       <c r="AR6" s="6">
         <f t="shared" si="4"/>
-        <v>7909.95586517024</v>
+        <v>7997.7233873202977</v>
       </c>
       <c r="AS6" s="6">
         <f t="shared" si="4"/>
-        <v>8155.1644969905165</v>
+        <v>8245.6528123272255</v>
       </c>
       <c r="AT6" s="6">
         <f t="shared" si="4"/>
-        <v>8407.9745963972218</v>
+        <v>8501.2680495093682</v>
       </c>
       <c r="AU6" s="6">
         <f t="shared" si="4"/>
-        <v>8668.6218088855348</v>
+        <v>8764.8073590441581</v>
       </c>
       <c r="AV6" s="6">
         <f t="shared" si="4"/>
-        <v>8937.3490849609861</v>
+        <v>9036.5163871745262</v>
       </c>
       <c r="AW6" s="6">
         <f t="shared" si="4"/>
-        <v>9214.4069065947751</v>
+        <v>9316.6483951769351</v>
       </c>
       <c r="AX6" s="6">
         <f t="shared" si="4"/>
-        <v>9500.0535206992117</v>
+        <v>9605.464495427419</v>
       </c>
       <c r="AY6" s="6">
         <f t="shared" si="4"/>
-        <v>9794.5551798408869</v>
+        <v>9903.2338947856679</v>
       </c>
       <c r="AZ6" s="6">
         <f t="shared" si="4"/>
-        <v>10098.186390415953</v>
+        <v>10210.234145524022</v>
       </c>
       <c r="BA6" s="6">
         <f t="shared" si="4"/>
-        <v>10411.230168518847</v>
+        <v>10526.751404035265</v>
       </c>
       <c r="BB6" s="6">
         <f t="shared" si="4"/>
-        <v>10733.97830374293</v>
+        <v>10853.080697560357</v>
       </c>
       <c r="BC6" s="6">
         <f t="shared" si="4"/>
-        <v>11066.73163115896</v>
+        <v>11189.526199184727</v>
       </c>
       <c r="BD6" s="6">
         <f t="shared" si="4"/>
-        <v>11409.800311724886</v>
+        <v>11536.401511359452</v>
       </c>
       <c r="BE6" s="6">
         <f t="shared" si="4"/>
-        <v>11763.504121388356</v>
+        <v>11894.029958211595</v>
       </c>
       <c r="BF6" s="6">
         <f t="shared" si="4"/>
-        <v>12128.172749151394</v>
+        <v>12262.744886916153</v>
       </c>
       <c r="BG6" s="6">
         <f t="shared" si="4"/>
-        <v>12504.146104375086</v>
+        <v>12642.889978410552</v>
       </c>
       <c r="BH6" s="6">
         <f t="shared" si="4"/>
-        <v>12891.774633610712</v>
+        <v>13034.819567741279</v>
       </c>
       <c r="BI6" s="6">
         <f t="shared" si="4"/>
-        <v>13291.419647252644</v>
+        <v>13438.898974341257</v>
       </c>
       <c r="BJ6" s="6">
         <f t="shared" si="4"/>
-        <v>13703.453656317475</v>
+        <v>13855.504842545835</v>
       </c>
       <c r="BK6" s="6">
         <f t="shared" si="4"/>
-        <v>14128.260719663316</v>
+        <v>14285.025492664756</v>
       </c>
       <c r="BL6" s="6">
         <f t="shared" si="4"/>
-        <v>14566.236801972878</v>
+        <v>14727.861282937361</v>
       </c>
       <c r="BM6" s="6">
         <f t="shared" si="4"/>
-        <v>15017.790142834036</v>
+        <v>15184.424982708419</v>
       </c>
       <c r="BN6" s="6">
         <f t="shared" si="4"/>
-        <v>15483.341637261889</v>
+        <v>15655.142157172379</v>
       </c>
       <c r="BO6" s="6">
         <f t="shared" si="4"/>
-        <v>15963.325228017005</v>
+        <v>16140.451564044721</v>
       </c>
       <c r="BP6" s="6">
         <f t="shared" si="4"/>
-        <v>16458.18831008553</v>
+        <v>16640.805562530106</v>
       </c>
       <c r="BQ6" s="6">
         <f t="shared" si="4"/>
-        <v>16968.392147698181</v>
+        <v>17156.670534968536</v>
       </c>
       <c r="BR6" s="6">
         <f t="shared" si="4"/>
-        <v>17494.412304276822</v>
+        <v>17688.527321552559</v>
       </c>
       <c r="BS6" s="6">
         <f t="shared" si="4"/>
-        <v>18036.739085709403</v>
+        <v>18236.871668520689</v>
       </c>
       <c r="BT6" s="6">
         <f t="shared" si="4"/>
-        <v>18595.877997366395</v>
+        <v>18802.214690244829</v>
       </c>
       <c r="BU6" s="6">
         <f t="shared" si="4"/>
-        <v>19172.35021528475</v>
+        <v>19385.083345642419</v>
       </c>
       <c r="BV6" s="6">
         <f t="shared" si="4"/>
-        <v>19766.693071958576</v>
+        <v>19986.020929357332</v>
       </c>
       <c r="BW6" s="6">
         <f t="shared" si="4"/>
-        <v>20379.46055718929</v>
+        <v>20605.587578167408</v>
       </c>
       <c r="BX6" s="6">
         <f t="shared" si="4"/>
-        <v>21011.223834462155</v>
+        <v>21244.360793090596</v>
       </c>
       <c r="BY6" s="6">
         <f t="shared" si="4"/>
-        <v>21662.571773330481</v>
+        <v>21902.935977676403</v>
       </c>
       <c r="BZ6" s="6">
         <f t="shared" si="4"/>
-        <v>22334.111498303722</v>
+        <v>22581.926992984369</v>
       </c>
       <c r="CA6" s="6">
         <f t="shared" si="4"/>
-        <v>23026.468954751137</v>
+        <v>23281.966729766882</v>
       </c>
       <c r="CB6" s="6">
         <f t="shared" si="4"/>
-        <v>23740.28949234842</v>
+        <v>24003.707698389655</v>
       </c>
       <c r="CC6" s="6">
         <f t="shared" si="4"/>
-        <v>24476.238466611219</v>
+        <v>24747.822637039731</v>
       </c>
       <c r="CD6" s="6">
         <f t="shared" si="4"/>
-        <v>25235.001859076165</v>
+        <v>25515.005138787961</v>
       </c>
       <c r="CE6" s="6">
         <f t="shared" si="4"/>
-        <v>26017.286916707522</v>
+        <v>26305.970298090386</v>
       </c>
       <c r="CF6" s="6">
         <f t="shared" si="4"/>
-        <v>26823.822811125454</v>
+        <v>27121.455377331185</v>
       </c>
       <c r="CG6" s="6">
         <f t="shared" si="4"/>
-        <v>27655.361318270341</v>
+        <v>27962.22049402845</v>
       </c>
       <c r="CH6" s="6">
         <f t="shared" si="4"/>
-        <v>28512.67751913672</v>
+        <v>28829.049329343328</v>
       </c>
       <c r="CI6" s="6">
         <f t="shared" si="4"/>
-        <v>29396.570522229955</v>
+        <v>29722.749858552968</v>
       </c>
       <c r="CJ6" s="6">
         <f t="shared" ref="CJ6:DV6" si="5">CI6*1.031</f>
-        <v>30307.86420841908</v>
+        <v>30644.155104168109</v>
       </c>
       <c r="CK6" s="6">
         <f t="shared" si="5"/>
-        <v>31247.407998880069</v>
+        <v>31594.123912397317</v>
       </c>
       <c r="CL6" s="6">
         <f t="shared" si="5"/>
-        <v>32216.077646845348</v>
+        <v>32573.541753681631</v>
       </c>
       <c r="CM6" s="6">
         <f t="shared" si="5"/>
-        <v>33214.776053897549</v>
+        <v>33583.321548045758</v>
       </c>
       <c r="CN6" s="6">
         <f t="shared" si="5"/>
-        <v>34244.434111568371</v>
+        <v>34624.404516035174</v>
       </c>
       <c r="CO6" s="6">
         <f t="shared" si="5"/>
-        <v>35306.011569026989</v>
+        <v>35697.761056032265</v>
       </c>
       <c r="CP6" s="6">
         <f t="shared" si="5"/>
-        <v>36400.497927666824</v>
+        <v>36804.391648769262</v>
       </c>
       <c r="CQ6" s="6">
         <f t="shared" si="5"/>
-        <v>37528.913363424494</v>
+        <v>37945.327789881107</v>
       </c>
       <c r="CR6" s="6">
         <f t="shared" si="5"/>
-        <v>38692.309677690653</v>
+        <v>39121.632951367421</v>
       </c>
       <c r="CS6" s="6">
         <f t="shared" si="5"/>
-        <v>39891.771277699059</v>
+        <v>40334.40357285981</v>
       </c>
       <c r="CT6" s="6">
         <f t="shared" si="5"/>
-        <v>41128.416187307725</v>
+        <v>41584.770083618459</v>
       </c>
       <c r="CU6" s="6">
         <f t="shared" si="5"/>
-        <v>42403.39708911426</v>
+        <v>42873.897956210625</v>
       </c>
       <c r="CV6" s="6">
         <f t="shared" si="5"/>
-        <v>43717.902398876795</v>
+        <v>44202.988792853153</v>
       </c>
       <c r="CW6" s="6">
         <f t="shared" si="5"/>
-        <v>45073.157373241971</v>
+        <v>45573.281445431596</v>
       </c>
       <c r="CX6" s="6">
         <f t="shared" si="5"/>
-        <v>46470.42525181247</v>
+        <v>46986.053170239975</v>
       </c>
       <c r="CY6" s="6">
         <f t="shared" si="5"/>
-        <v>47911.008434618656</v>
+        <v>48442.620818517411</v>
       </c>
       <c r="CZ6" s="6">
         <f t="shared" si="5"/>
-        <v>49396.249696091829</v>
+        <v>49944.342063891447</v>
       </c>
       <c r="DA6" s="6">
         <f t="shared" si="5"/>
-        <v>50927.533436670674</v>
+        <v>51492.616667872077</v>
       </c>
       <c r="DB6" s="6">
         <f t="shared" si="5"/>
-        <v>52506.286973207461</v>
+        <v>53088.887784576109</v>
       </c>
       <c r="DC6" s="6">
         <f t="shared" si="5"/>
-        <v>54133.98186937689</v>
+        <v>54734.643305897967</v>
       </c>
       <c r="DD6" s="6">
         <f t="shared" si="5"/>
-        <v>55812.135307327568</v>
+        <v>56431.4172483808</v>
       </c>
       <c r="DE6" s="6">
         <f t="shared" si="5"/>
-        <v>57542.311501854718</v>
+        <v>58180.791183080597</v>
       </c>
       <c r="DF6" s="6">
         <f t="shared" si="5"/>
-        <v>59326.123158412207</v>
+        <v>59984.395709756092</v>
       </c>
       <c r="DG6" s="6">
         <f t="shared" si="5"/>
-        <v>61165.232976322979</v>
+        <v>61843.911976758529</v>
       </c>
       <c r="DH6" s="6">
         <f t="shared" si="5"/>
-        <v>63061.355198588986</v>
+        <v>63761.073248038039</v>
       </c>
       <c r="DI6" s="6">
         <f t="shared" si="5"/>
-        <v>65016.257209745243</v>
+        <v>65737.666518727216</v>
       </c>
       <c r="DJ6" s="6">
         <f t="shared" si="5"/>
-        <v>67031.761183247334</v>
+        <v>67775.53418080775</v>
       </c>
       <c r="DK6" s="6">
         <f t="shared" si="5"/>
-        <v>69109.745779927995</v>
+        <v>69876.57574041278</v>
       </c>
       <c r="DL6" s="6">
         <f t="shared" si="5"/>
-        <v>71252.147899105752</v>
+        <v>72042.749588365565</v>
       </c>
       <c r="DM6" s="6">
         <f t="shared" si="5"/>
-        <v>73460.964483978023</v>
+        <v>74276.074825604897</v>
       </c>
       <c r="DN6" s="6">
         <f t="shared" si="5"/>
-        <v>75738.254382981337</v>
+        <v>76578.633145198648</v>
       </c>
       <c r="DO6" s="6">
         <f t="shared" si="5"/>
-        <v>78086.140268853749</v>
+        <v>78952.570772699793</v>
       </c>
       <c r="DP6" s="6">
         <f t="shared" si="5"/>
-        <v>80506.81061718821</v>
+        <v>81400.100466653486</v>
       </c>
       <c r="DQ6" s="6">
         <f t="shared" si="5"/>
-        <v>83002.521746321043</v>
+        <v>83923.50358111973</v>
       </c>
       <c r="DR6" s="6">
         <f t="shared" si="5"/>
-        <v>85575.599920456982</v>
+        <v>86525.132192134435</v>
       </c>
       <c r="DS6" s="6">
         <f t="shared" si="5"/>
-        <v>88228.443517991138</v>
+        <v>89207.411290090589</v>
       </c>
       <c r="DT6" s="6">
         <f t="shared" si="5"/>
-        <v>90963.525267048855</v>
+        <v>91972.841040083396</v>
       </c>
       <c r="DU6" s="6">
         <f t="shared" si="5"/>
-        <v>93783.394550327357</v>
+        <v>94823.999112325968</v>
       </c>
       <c r="DV6" s="6">
         <f t="shared" si="5"/>
-        <v>96690.679781387502</v>
+        <v>97763.543084808058</v>
       </c>
       <c r="DW6" s="6">
         <f t="shared" ref="DW6" si="6">DV6*1.031</f>
-        <v>99688.090854610506</v>
+        <v>100794.2129204371</v>
       </c>
       <c r="DX6" s="6">
         <f t="shared" ref="DX6" si="7">DW6*1.031</f>
-        <v>102778.42167110342</v>
+        <v>103918.83352097064</v>
       </c>
       <c r="DY6" s="6">
         <f t="shared" ref="DY6" si="8">DX6*1.031</f>
-        <v>105964.55274290762</v>
+        <v>107140.31736012072</v>
       </c>
       <c r="DZ6" s="6">
         <f t="shared" ref="DZ6" si="9">DY6*1.031</f>
-        <v>109249.45387793775</v>
+        <v>110461.66719828446</v>
       </c>
       <c r="EA6" s="6">
         <f t="shared" ref="EA6" si="10">DZ6*1.031</f>
-        <v>112636.1869481538</v>
+        <v>113885.97888143126</v>
       </c>
       <c r="EB6" s="6">
         <f t="shared" ref="EB6" si="11">EA6*1.031</f>
-        <v>116127.90874354656</v>
+        <v>117416.44422675563</v>
       </c>
       <c r="EC6" s="6">
         <f t="shared" ref="EC6" si="12">EB6*1.031</f>
-        <v>119727.87391459649</v>
+        <v>121056.35399778505</v>
       </c>
       <c r="ED6" s="6">
         <f t="shared" ref="ED6" si="13">EC6*1.031</f>
-        <v>123439.43800594898</v>
+        <v>124809.10097171637</v>
       </c>
       <c r="EE6" s="6">
         <f t="shared" ref="EE6" si="14">ED6*1.031</f>
-        <v>127266.06058413339</v>
+        <v>128678.18310183956</v>
       </c>
       <c r="EF6" s="6">
         <f t="shared" ref="EF6" si="15">EE6*1.031</f>
-        <v>131211.30846224152</v>
+        <v>132667.20677799659</v>
       </c>
       <c r="EG6" s="6">
         <f t="shared" ref="EG6" si="16">EF6*1.031</f>
-        <v>135278.85902457099</v>
+        <v>136779.89018811448</v>
       </c>
       <c r="EH6" s="6">
         <f t="shared" ref="EH6" si="17">EG6*1.031</f>
-        <v>139472.50365433269</v>
+        <v>141020.06678394604</v>
       </c>
       <c r="EI6" s="6">
         <f t="shared" ref="EI6" si="18">EH6*1.031</f>
-        <v>143796.15126761698</v>
+        <v>145391.68885424835</v>
       </c>
       <c r="EJ6" s="6">
         <f t="shared" ref="EJ6" si="19">EI6*1.031</f>
-        <v>148253.83195691308</v>
+        <v>149898.83120873003</v>
       </c>
       <c r="EK6" s="6">
         <f t="shared" ref="EK6" si="20">EJ6*1.031</f>
-        <v>152849.70074757739</v>
+        <v>154545.69497620064</v>
       </c>
       <c r="EL6" s="6">
         <f t="shared" ref="EL6" si="21">EK6*1.031</f>
-        <v>157588.04147075227</v>
+        <v>159336.61152046284</v>
       </c>
     </row>
     <row r="7" spans="2:142" x14ac:dyDescent="0.2">
@@ -1501,11 +1495,11 @@
       </c>
       <c r="D9" s="4">
         <f>NPV(D8,C6:EL6)</f>
-        <v>50977.700505841662</v>
+        <v>50958.414454262464</v>
       </c>
       <c r="E9" s="5">
         <f>D9/$D$11-1</f>
-        <v>-0.22171449609402039</v>
+        <v>-0.22200893962958068</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>

--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3312A796-BA06-4862-B8A9-C42FCB596A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297C1F6-6FE1-4798-B87C-DD060E0F418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>USA STOCK MARKET CAP</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Bennett, Elizabeth A., and Janina Grabs. "How can sustainable business models distribute value more equitably in global value chains? Introducing “value chain profit sharing” as an emerging alternative to fair trade, direct trade, or solidarity trade." Business Ethics, the Environment &amp; Responsibility 34, no. 2 (2025): 581-601.</t>
+  </si>
+  <si>
+    <t>The market is fairly valued if:</t>
+  </si>
+  <si>
+    <t>corporate taxes are not raised and stay at historical lows</t>
   </si>
 </sst>
 </file>
@@ -1518,6 +1524,9 @@
         <v>65500</v>
       </c>
       <c r="E11" s="7"/>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="2:142" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
@@ -1527,6 +1536,9 @@
         <v>3.15E-2</v>
       </c>
       <c r="E12" s="7"/>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="2:142" x14ac:dyDescent="0.2">
       <c r="C13" t="s">

--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297C1F6-6FE1-4798-B87C-DD060E0F418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CA480-D26C-4E3D-B740-66ED4CBE0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="2340" yWindow="1680" windowWidth="20805" windowHeight="14520" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>USA STOCK MARKET CAP</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>corporate taxes are not raised and stay at historical lows</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/</t>
   </si>
 </sst>
 </file>
@@ -627,10 +630,10 @@
   <dimension ref="A2:EL34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -647,83 +650,83 @@
         <v>2024</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:W2" si="0">C2+1</f>
+        <f>C2+1</f>
         <v>2025</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
+        <f>D2+1</f>
         <v>2026</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f>E2+1</f>
         <v>2027</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
+        <f>F2+1</f>
         <v>2028</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
+        <f>G2+1</f>
         <v>2029</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f>H2+1</f>
         <v>2030</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
+        <f>I2+1</f>
         <v>2031</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
+        <f>J2+1</f>
         <v>2032</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
+        <f>K2+1</f>
         <v>2033</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
+        <f>L2+1</f>
         <v>2034</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
+        <f>M2+1</f>
         <v>2035</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
+        <f>N2+1</f>
         <v>2036</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
+        <f>O2+1</f>
         <v>2037</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
+        <f>P2+1</f>
         <v>2038</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
+        <f>Q2+1</f>
         <v>2039</v>
       </c>
       <c r="S2">
-        <f t="shared" si="0"/>
+        <f>R2+1</f>
         <v>2040</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
+        <f>S2+1</f>
         <v>2041</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
+        <f>T2+1</f>
         <v>2042</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
+        <f>U2+1</f>
         <v>2043</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
+        <f>V2+1</f>
         <v>2044</v>
       </c>
     </row>
@@ -739,75 +742,75 @@
         <v>31445.499999999996</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:V3" si="1">D3*1.031</f>
+        <f>D3*1.031</f>
         <v>32420.310499999992</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="1"/>
+        <f>E3*1.031</f>
         <v>33425.340125499992</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
+        <f>F3*1.031</f>
         <v>34461.525669390488</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="1"/>
+        <f>G3*1.031</f>
         <v>35529.832965141592</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="1"/>
+        <f>H3*1.031</f>
         <v>36631.257787060975</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="1"/>
+        <f>I3*1.031</f>
         <v>37766.826778459865</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="1"/>
+        <f>J3*1.031</f>
         <v>38937.598408592115</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="1"/>
+        <f>K3*1.031</f>
         <v>40144.663959258469</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="1"/>
+        <f>L3*1.031</f>
         <v>41389.148541995477</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="1"/>
+        <f>M3*1.031</f>
         <v>42672.212146797334</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="1"/>
+        <f>N3*1.031</f>
         <v>43995.050723348046</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="1"/>
+        <f>O3*1.031</f>
         <v>45358.897295771829</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="1"/>
+        <f>P3*1.031</f>
         <v>46765.023111940754</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="1"/>
+        <f>Q3*1.031</f>
         <v>48214.738828410911</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="1"/>
+        <f>R3*1.031</f>
         <v>49709.395732091645</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="1"/>
+        <f>S3*1.031</f>
         <v>51250.386999786482</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="1"/>
+        <f>T3*1.031</f>
         <v>52839.148996779855</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="1"/>
+        <f>U3*1.031</f>
         <v>54477.162615680027</v>
       </c>
     </row>
@@ -828,51 +831,51 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:P5" si="2">D5*0.975</f>
+        <f>D5*0.975</f>
         <v>0.114075</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="2"/>
+        <f>E5*0.975</f>
         <v>0.11122312499999999</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="2"/>
+        <f>F5*0.975</f>
         <v>0.10844254687499999</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="2"/>
+        <f>G5*0.975</f>
         <v>0.10573148320312499</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="2"/>
+        <f>H5*0.975</f>
         <v>0.10308819612304686</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
+        <f>I5*0.975</f>
         <v>0.10051099121997069</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="2"/>
+        <f>J5*0.975</f>
         <v>9.7998216439471417E-2</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="2"/>
+        <f>K5*0.975</f>
         <v>9.5548261028484627E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="2"/>
+        <f>L5*0.975</f>
         <v>9.315955450277251E-2</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="2"/>
+        <f>M5*0.975</f>
         <v>9.0830565640203198E-2</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="2"/>
+        <f>N5*0.975</f>
         <v>8.8559801499198121E-2</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="2"/>
+        <f>O5*0.975</f>
         <v>8.6345806461718161E-2</v>
       </c>
       <c r="Q5" s="7">
@@ -899,83 +902,83 @@
         <v>32</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" ref="C6:V6" si="3">C5*C3</f>
+        <f>C5*C3</f>
         <v>3660</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="3"/>
+        <f>D5*D3</f>
         <v>3679.1234999999992</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="3"/>
+        <f>E5*E3</f>
         <v>3698.346920287499</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
+        <f>F5*F3</f>
         <v>3717.6707829460011</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f>G5*G3</f>
         <v>3737.0956127868935</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
+        <f>H5*H3</f>
         <v>3756.6219373637045</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="3"/>
+        <f>I5*I3</f>
         <v>3776.2502869864293</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="3"/>
+        <f>J5*J3</f>
         <v>3795.9811947359335</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="3"/>
+        <f>K5*K3</f>
         <v>3815.8151964784279</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="3"/>
+        <f>L5*L3</f>
         <v>3835.7528308800274</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" si="3"/>
+        <f>M5*M3</f>
         <v>3855.794639421375</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="3"/>
+        <f>N5*N3</f>
         <v>3875.9411664123513</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="3"/>
+        <f>O5*O3</f>
         <v>3896.1929590068557</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="3"/>
+        <f>P5*P3</f>
         <v>3916.5505672176655</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="3"/>
+        <f>Q5*Q3</f>
         <v>3741.2018489552606</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" si="3"/>
+        <f>R5*R3</f>
         <v>3857.179106272873</v>
       </c>
       <c r="S6" s="6">
-        <f t="shared" si="3"/>
+        <f>S5*S3</f>
         <v>3728.204679906873</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="3"/>
+        <f>T5*T3</f>
         <v>3843.7790249839859</v>
       </c>
       <c r="U6" s="6">
-        <f t="shared" si="3"/>
+        <f>U5*U3</f>
         <v>3962.936174758489</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" si="3"/>
+        <f>V5*V3</f>
         <v>4085.787196176002</v>
       </c>
       <c r="W6" s="6">
@@ -983,479 +986,479 @@
         <v>4212.4465992574578</v>
       </c>
       <c r="X6" s="6">
-        <f t="shared" ref="X6:CI6" si="4">W6*1.031</f>
+        <f t="shared" ref="X6:CI6" si="0">W6*1.031</f>
         <v>4343.0324438344387</v>
       </c>
       <c r="Y6" s="6">
-        <f t="shared" si="4"/>
+        <f>X6*1.031</f>
         <v>4477.6664495933055</v>
       </c>
       <c r="Z6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4616.4741095306972</v>
       </c>
       <c r="AA6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4759.5848069261483</v>
       </c>
       <c r="AB6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4907.1319359408581</v>
       </c>
       <c r="AC6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5059.253025955024</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5216.0898697596294</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5377.7886557221773</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5544.5001040495645</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5716.3796072751002</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5893.5873751006275</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6076.2885837287467</v>
       </c>
       <c r="AJ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6264.6535298243371</v>
       </c>
       <c r="AK6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6458.8577892488911</v>
       </c>
       <c r="AL6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6659.0823807156066</v>
       </c>
       <c r="AM6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6865.5139345177895</v>
       </c>
       <c r="AN6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7078.3448664878406</v>
       </c>
       <c r="AO6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7297.7735573489626</v>
       </c>
       <c r="AP6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7524.0045376267799</v>
       </c>
       <c r="AQ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7757.2486782932092</v>
       </c>
       <c r="AR6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7997.7233873202977</v>
       </c>
       <c r="AS6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8245.6528123272255</v>
       </c>
       <c r="AT6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8501.2680495093682</v>
       </c>
       <c r="AU6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8764.8073590441581</v>
       </c>
       <c r="AV6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9036.5163871745262</v>
       </c>
       <c r="AW6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9316.6483951769351</v>
       </c>
       <c r="AX6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9605.464495427419</v>
       </c>
       <c r="AY6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9903.2338947856679</v>
       </c>
       <c r="AZ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10210.234145524022</v>
       </c>
       <c r="BA6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10526.751404035265</v>
       </c>
       <c r="BB6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10853.080697560357</v>
       </c>
       <c r="BC6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11189.526199184727</v>
       </c>
       <c r="BD6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11536.401511359452</v>
       </c>
       <c r="BE6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11894.029958211595</v>
       </c>
       <c r="BF6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12262.744886916153</v>
       </c>
       <c r="BG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12642.889978410552</v>
       </c>
       <c r="BH6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13034.819567741279</v>
       </c>
       <c r="BI6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13438.898974341257</v>
       </c>
       <c r="BJ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13855.504842545835</v>
       </c>
       <c r="BK6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14285.025492664756</v>
       </c>
       <c r="BL6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14727.861282937361</v>
       </c>
       <c r="BM6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15184.424982708419</v>
       </c>
       <c r="BN6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15655.142157172379</v>
       </c>
       <c r="BO6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16140.451564044721</v>
       </c>
       <c r="BP6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16640.805562530106</v>
       </c>
       <c r="BQ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17156.670534968536</v>
       </c>
       <c r="BR6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17688.527321552559</v>
       </c>
       <c r="BS6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18236.871668520689</v>
       </c>
       <c r="BT6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18802.214690244829</v>
       </c>
       <c r="BU6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19385.083345642419</v>
       </c>
       <c r="BV6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19986.020929357332</v>
       </c>
       <c r="BW6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20605.587578167408</v>
       </c>
       <c r="BX6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21244.360793090596</v>
       </c>
       <c r="BY6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21902.935977676403</v>
       </c>
       <c r="BZ6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>22581.926992984369</v>
       </c>
       <c r="CA6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>23281.966729766882</v>
       </c>
       <c r="CB6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24003.707698389655</v>
       </c>
       <c r="CC6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24747.822637039731</v>
       </c>
       <c r="CD6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25515.005138787961</v>
       </c>
       <c r="CE6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>26305.970298090386</v>
       </c>
       <c r="CF6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27121.455377331185</v>
       </c>
       <c r="CG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27962.22049402845</v>
       </c>
       <c r="CH6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28829.049329343328</v>
       </c>
       <c r="CI6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>29722.749858552968</v>
       </c>
       <c r="CJ6" s="6">
-        <f t="shared" ref="CJ6:DV6" si="5">CI6*1.031</f>
+        <f t="shared" ref="CJ6:DV6" si="1">CI6*1.031</f>
         <v>30644.155104168109</v>
       </c>
       <c r="CK6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>31594.123912397317</v>
       </c>
       <c r="CL6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>32573.541753681631</v>
       </c>
       <c r="CM6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>33583.321548045758</v>
       </c>
       <c r="CN6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>34624.404516035174</v>
       </c>
       <c r="CO6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>35697.761056032265</v>
       </c>
       <c r="CP6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>36804.391648769262</v>
       </c>
       <c r="CQ6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>37945.327789881107</v>
       </c>
       <c r="CR6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>39121.632951367421</v>
       </c>
       <c r="CS6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>40334.40357285981</v>
       </c>
       <c r="CT6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>41584.770083618459</v>
       </c>
       <c r="CU6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>42873.897956210625</v>
       </c>
       <c r="CV6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>44202.988792853153</v>
       </c>
       <c r="CW6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>45573.281445431596</v>
       </c>
       <c r="CX6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>46986.053170239975</v>
       </c>
       <c r="CY6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>48442.620818517411</v>
       </c>
       <c r="CZ6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>49944.342063891447</v>
       </c>
       <c r="DA6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>51492.616667872077</v>
       </c>
       <c r="DB6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>53088.887784576109</v>
       </c>
       <c r="DC6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>54734.643305897967</v>
       </c>
       <c r="DD6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>56431.4172483808</v>
       </c>
       <c r="DE6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>58180.791183080597</v>
       </c>
       <c r="DF6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>59984.395709756092</v>
       </c>
       <c r="DG6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>61843.911976758529</v>
       </c>
       <c r="DH6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>63761.073248038039</v>
       </c>
       <c r="DI6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>65737.666518727216</v>
       </c>
       <c r="DJ6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>67775.53418080775</v>
       </c>
       <c r="DK6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>69876.57574041278</v>
       </c>
       <c r="DL6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>72042.749588365565</v>
       </c>
       <c r="DM6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>74276.074825604897</v>
       </c>
       <c r="DN6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>76578.633145198648</v>
       </c>
       <c r="DO6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>78952.570772699793</v>
       </c>
       <c r="DP6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>81400.100466653486</v>
       </c>
       <c r="DQ6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>83923.50358111973</v>
       </c>
       <c r="DR6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>86525.132192134435</v>
       </c>
       <c r="DS6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>89207.411290090589</v>
       </c>
       <c r="DT6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>91972.841040083396</v>
       </c>
       <c r="DU6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>94823.999112325968</v>
       </c>
       <c r="DV6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>97763.543084808058</v>
       </c>
       <c r="DW6" s="6">
-        <f t="shared" ref="DW6" si="6">DV6*1.031</f>
+        <f t="shared" ref="DW6" si="2">DV6*1.031</f>
         <v>100794.2129204371</v>
       </c>
       <c r="DX6" s="6">
-        <f t="shared" ref="DX6" si="7">DW6*1.031</f>
+        <f t="shared" ref="DX6" si="3">DW6*1.031</f>
         <v>103918.83352097064</v>
       </c>
       <c r="DY6" s="6">
-        <f t="shared" ref="DY6" si="8">DX6*1.031</f>
+        <f t="shared" ref="DY6" si="4">DX6*1.031</f>
         <v>107140.31736012072</v>
       </c>
       <c r="DZ6" s="6">
-        <f t="shared" ref="DZ6" si="9">DY6*1.031</f>
+        <f t="shared" ref="DZ6" si="5">DY6*1.031</f>
         <v>110461.66719828446</v>
       </c>
       <c r="EA6" s="6">
-        <f t="shared" ref="EA6" si="10">DZ6*1.031</f>
+        <f t="shared" ref="EA6" si="6">DZ6*1.031</f>
         <v>113885.97888143126</v>
       </c>
       <c r="EB6" s="6">
-        <f t="shared" ref="EB6" si="11">EA6*1.031</f>
+        <f t="shared" ref="EB6" si="7">EA6*1.031</f>
         <v>117416.44422675563</v>
       </c>
       <c r="EC6" s="6">
-        <f t="shared" ref="EC6" si="12">EB6*1.031</f>
+        <f t="shared" ref="EC6" si="8">EB6*1.031</f>
         <v>121056.35399778505</v>
       </c>
       <c r="ED6" s="6">
-        <f t="shared" ref="ED6" si="13">EC6*1.031</f>
+        <f t="shared" ref="ED6" si="9">EC6*1.031</f>
         <v>124809.10097171637</v>
       </c>
       <c r="EE6" s="6">
-        <f t="shared" ref="EE6" si="14">ED6*1.031</f>
+        <f t="shared" ref="EE6" si="10">ED6*1.031</f>
         <v>128678.18310183956</v>
       </c>
       <c r="EF6" s="6">
-        <f t="shared" ref="EF6" si="15">EE6*1.031</f>
+        <f t="shared" ref="EF6" si="11">EE6*1.031</f>
         <v>132667.20677799659</v>
       </c>
       <c r="EG6" s="6">
-        <f t="shared" ref="EG6" si="16">EF6*1.031</f>
+        <f t="shared" ref="EG6" si="12">EF6*1.031</f>
         <v>136779.89018811448</v>
       </c>
       <c r="EH6" s="6">
-        <f t="shared" ref="EH6" si="17">EG6*1.031</f>
+        <f t="shared" ref="EH6" si="13">EG6*1.031</f>
         <v>141020.06678394604</v>
       </c>
       <c r="EI6" s="6">
-        <f t="shared" ref="EI6" si="18">EH6*1.031</f>
+        <f t="shared" ref="EI6" si="14">EH6*1.031</f>
         <v>145391.68885424835</v>
       </c>
       <c r="EJ6" s="6">
-        <f t="shared" ref="EJ6" si="19">EI6*1.031</f>
+        <f t="shared" ref="EJ6" si="15">EI6*1.031</f>
         <v>149898.83120873003</v>
       </c>
       <c r="EK6" s="6">
-        <f t="shared" ref="EK6" si="20">EJ6*1.031</f>
+        <f t="shared" ref="EK6" si="16">EJ6*1.031</f>
         <v>154545.69497620064</v>
       </c>
       <c r="EL6" s="6">
-        <f t="shared" ref="EL6" si="21">EK6*1.031</f>
+        <f t="shared" ref="EL6" si="17">EK6*1.031</f>
         <v>159336.61152046284</v>
       </c>
     </row>
@@ -1665,7 +1668,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1757,52 +1760,55 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="11"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">

--- a/productivity.xlsx
+++ b/productivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CA480-D26C-4E3D-B740-66ED4CBE0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF35D4-5339-4FFD-AA65-1537C7446A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1680" windowWidth="20805" windowHeight="14520" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="3300" yWindow="390" windowWidth="22200" windowHeight="14685" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>USA STOCK MARKET CAP</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/</t>
+  </si>
+  <si>
+    <t>https://economics.mit.edu/sites/default/files/2024-04/The%20Simple%20Macroeconomics%20of%20AI.pdf</t>
+  </si>
+  <si>
+    <t>AI Economics Study</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
   <dimension ref="A2:EL34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,83 +656,83 @@
         <v>2024</v>
       </c>
       <c r="D2">
-        <f>C2+1</f>
+        <f t="shared" ref="D2:W2" si="0">C2+1</f>
         <v>2025</v>
       </c>
       <c r="E2">
-        <f>D2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="F2">
-        <f>E2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="G2">
-        <f>F2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="H2">
-        <f>G2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="I2">
-        <f>H2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="J2">
-        <f>I2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="K2">
-        <f>J2+1</f>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="L2">
-        <f>K2+1</f>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="M2">
-        <f>L2+1</f>
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
       <c r="N2">
-        <f>M2+1</f>
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
       <c r="O2">
-        <f>N2+1</f>
+        <f t="shared" si="0"/>
         <v>2036</v>
       </c>
       <c r="P2">
-        <f>O2+1</f>
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
       <c r="Q2">
-        <f>P2+1</f>
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
       <c r="R2">
-        <f>Q2+1</f>
+        <f t="shared" si="0"/>
         <v>2039</v>
       </c>
       <c r="S2">
-        <f>R2+1</f>
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
       <c r="T2">
-        <f>S2+1</f>
+        <f t="shared" si="0"/>
         <v>2041</v>
       </c>
       <c r="U2">
-        <f>T2+1</f>
+        <f t="shared" si="0"/>
         <v>2042</v>
       </c>
       <c r="V2">
-        <f>U2+1</f>
+        <f t="shared" si="0"/>
         <v>2043</v>
       </c>
       <c r="W2">
-        <f>V2+1</f>
+        <f t="shared" si="0"/>
         <v>2044</v>
       </c>
     </row>
@@ -742,75 +748,75 @@
         <v>31445.499999999996</v>
       </c>
       <c r="E3" s="6">
-        <f>D3*1.031</f>
+        <f t="shared" ref="E3:V3" si="1">D3*1.031</f>
         <v>32420.310499999992</v>
       </c>
       <c r="F3" s="6">
-        <f>E3*1.031</f>
+        <f t="shared" si="1"/>
         <v>33425.340125499992</v>
       </c>
       <c r="G3" s="6">
-        <f>F3*1.031</f>
+        <f t="shared" si="1"/>
         <v>34461.525669390488</v>
       </c>
       <c r="H3" s="6">
-        <f>G3*1.031</f>
+        <f t="shared" si="1"/>
         <v>35529.832965141592</v>
       </c>
       <c r="I3" s="6">
-        <f>H3*1.031</f>
+        <f t="shared" si="1"/>
         <v>36631.257787060975</v>
       </c>
       <c r="J3" s="6">
-        <f>I3*1.031</f>
+        <f t="shared" si="1"/>
         <v>37766.826778459865</v>
       </c>
       <c r="K3" s="6">
-        <f>J3*1.031</f>
+        <f t="shared" si="1"/>
         <v>38937.598408592115</v>
       </c>
       <c r="L3" s="6">
-        <f>K3*1.031</f>
+        <f t="shared" si="1"/>
         <v>40144.663959258469</v>
       </c>
       <c r="M3" s="6">
-        <f>L3*1.031</f>
+        <f t="shared" si="1"/>
         <v>41389.148541995477</v>
       </c>
       <c r="N3" s="6">
-        <f>M3*1.031</f>
+        <f t="shared" si="1"/>
         <v>42672.212146797334</v>
       </c>
       <c r="O3" s="6">
-        <f>N3*1.031</f>
+        <f t="shared" si="1"/>
         <v>43995.050723348046</v>
       </c>
       <c r="P3" s="6">
-        <f>O3*1.031</f>
+        <f t="shared" si="1"/>
         <v>45358.897295771829</v>
       </c>
       <c r="Q3" s="6">
-        <f>P3*1.031</f>
+        <f t="shared" si="1"/>
         <v>46765.023111940754</v>
       </c>
       <c r="R3" s="6">
-        <f>Q3*1.031</f>
+        <f t="shared" si="1"/>
         <v>48214.738828410911</v>
       </c>
       <c r="S3" s="6">
-        <f>R3*1.031</f>
+        <f t="shared" si="1"/>
         <v>49709.395732091645</v>
       </c>
       <c r="T3" s="6">
-        <f>S3*1.031</f>
+        <f t="shared" si="1"/>
         <v>51250.386999786482</v>
       </c>
       <c r="U3" s="6">
-        <f>T3*1.031</f>
+        <f t="shared" si="1"/>
         <v>52839.148996779855</v>
       </c>
       <c r="V3" s="6">
-        <f>U3*1.031</f>
+        <f t="shared" si="1"/>
         <v>54477.162615680027</v>
       </c>
     </row>
@@ -827,55 +833,55 @@
         <v>0.12</v>
       </c>
       <c r="D5" s="7">
-        <f>C5*0.975</f>
+        <f t="shared" ref="D5:P5" si="2">C5*0.975</f>
         <v>0.11699999999999999</v>
       </c>
       <c r="E5" s="7">
-        <f>D5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.114075</v>
       </c>
       <c r="F5" s="7">
-        <f>E5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.11122312499999999</v>
       </c>
       <c r="G5" s="7">
-        <f>F5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.10844254687499999</v>
       </c>
       <c r="H5" s="7">
-        <f>G5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.10573148320312499</v>
       </c>
       <c r="I5" s="7">
-        <f>H5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.10308819612304686</v>
       </c>
       <c r="J5" s="7">
-        <f>I5*0.975</f>
+        <f t="shared" si="2"/>
         <v>0.10051099121997069</v>
       </c>
       <c r="K5" s="7">
-        <f>J5*0.975</f>
+        <f t="shared" si="2"/>
         <v>9.7998216439471417E-2</v>
       </c>
       <c r="L5" s="7">
-        <f>K5*0.975</f>
+        <f t="shared" si="2"/>
         <v>9.5548261028484627E-2</v>
       </c>
       <c r="M5" s="7">
-        <f>L5*0.975</f>
+        <f t="shared" si="2"/>
         <v>9.315955450277251E-2</v>
       </c>
       <c r="N5" s="7">
-        <f>M5*0.975</f>
+        <f t="shared" si="2"/>
         <v>9.0830565640203198E-2</v>
       </c>
       <c r="O5" s="7">
-        <f>N5*0.975</f>
+        <f t="shared" si="2"/>
         <v>8.8559801499198121E-2</v>
       </c>
       <c r="P5" s="7">
-        <f>O5*0.975</f>
+        <f t="shared" si="2"/>
         <v>8.6345806461718161E-2</v>
       </c>
       <c r="Q5" s="7">
@@ -902,83 +908,83 @@
         <v>32</v>
       </c>
       <c r="C6" s="6">
-        <f>C5*C3</f>
+        <f t="shared" ref="C6:V6" si="3">C5*C3</f>
         <v>3660</v>
       </c>
       <c r="D6" s="6">
-        <f>D5*D3</f>
+        <f t="shared" si="3"/>
         <v>3679.1234999999992</v>
       </c>
       <c r="E6" s="6">
-        <f>E5*E3</f>
+        <f t="shared" si="3"/>
         <v>3698.346920287499</v>
       </c>
       <c r="F6" s="6">
-        <f>F5*F3</f>
+        <f t="shared" si="3"/>
         <v>3717.6707829460011</v>
       </c>
       <c r="G6" s="6">
-        <f>G5*G3</f>
+        <f t="shared" si="3"/>
         <v>3737.0956127868935</v>
       </c>
       <c r="H6" s="6">
-        <f>H5*H3</f>
+        <f t="shared" si="3"/>
         <v>3756.6219373637045</v>
       </c>
       <c r="I6" s="6">
-        <f>I5*I3</f>
+        <f t="shared" si="3"/>
         <v>3776.2502869864293</v>
       </c>
       <c r="J6" s="6">
-        <f>J5*J3</f>
+        <f t="shared" si="3"/>
         <v>3795.9811947359335</v>
       </c>
       <c r="K6" s="6">
-        <f>K5*K3</f>
+        <f t="shared" si="3"/>
         <v>3815.8151964784279</v>
       </c>
       <c r="L6" s="6">
-        <f>L5*L3</f>
+        <f t="shared" si="3"/>
         <v>3835.7528308800274</v>
       </c>
       <c r="M6" s="6">
-        <f>M5*M3</f>
+        <f t="shared" si="3"/>
         <v>3855.794639421375</v>
       </c>
       <c r="N6" s="6">
-        <f>N5*N3</f>
+        <f t="shared" si="3"/>
         <v>3875.9411664123513</v>
       </c>
       <c r="O6" s="6">
-        <f>O5*O3</f>
+        <f t="shared" si="3"/>
         <v>3896.1929590068557</v>
       </c>
       <c r="P6" s="6">
-        <f>P5*P3</f>
+        <f t="shared" si="3"/>
         <v>3916.5505672176655</v>
       </c>
       <c r="Q6" s="6">
-        <f>Q5*Q3</f>
+        <f t="shared" si="3"/>
         <v>3741.2018489552606</v>
       </c>
       <c r="R6" s="6">
-        <f>R5*R3</f>
+        <f t="shared" si="3"/>
         <v>3857.179106272873</v>
       </c>
       <c r="S6" s="6">
-        <f>S5*S3</f>
+        <f t="shared" si="3"/>
         <v>3728.204679906873</v>
       </c>
       <c r="T6" s="6">
-        <f>T5*T3</f>
+        <f t="shared" si="3"/>
         <v>3843.7790249839859</v>
       </c>
       <c r="U6" s="6">
-        <f>U5*U3</f>
+        <f t="shared" si="3"/>
         <v>3962.936174758489</v>
       </c>
       <c r="V6" s="6">
-        <f>V5*V3</f>
+        <f t="shared" si="3"/>
         <v>4085.787196176002</v>
       </c>
       <c r="W6" s="6">
@@ -986,7 +992,7 @@
         <v>4212.4465992574578</v>
       </c>
       <c r="X6" s="6">
-        <f t="shared" ref="X6:CI6" si="0">W6*1.031</f>
+        <f t="shared" ref="X6:CI6" si="4">W6*1.031</f>
         <v>4343.0324438344387</v>
       </c>
       <c r="Y6" s="6">
@@ -994,471 +1000,471 @@
         <v>4477.6664495933055</v>
       </c>
       <c r="Z6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4616.4741095306972</v>
       </c>
       <c r="AA6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4759.5848069261483</v>
       </c>
       <c r="AB6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4907.1319359408581</v>
       </c>
       <c r="AC6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5059.253025955024</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5216.0898697596294</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5377.7886557221773</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5544.5001040495645</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5716.3796072751002</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5893.5873751006275</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6076.2885837287467</v>
       </c>
       <c r="AJ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6264.6535298243371</v>
       </c>
       <c r="AK6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6458.8577892488911</v>
       </c>
       <c r="AL6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6659.0823807156066</v>
       </c>
       <c r="AM6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6865.5139345177895</v>
       </c>
       <c r="AN6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7078.3448664878406</v>
       </c>
       <c r="AO6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7297.7735573489626</v>
       </c>
       <c r="AP6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7524.0045376267799</v>
       </c>
       <c r="AQ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7757.2486782932092</v>
       </c>
       <c r="AR6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7997.7233873202977</v>
       </c>
       <c r="AS6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8245.6528123272255</v>
       </c>
       <c r="AT6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8501.2680495093682</v>
       </c>
       <c r="AU6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8764.8073590441581</v>
       </c>
       <c r="AV6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9036.5163871745262</v>
       </c>
       <c r="AW6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9316.6483951769351</v>
       </c>
       <c r="AX6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9605.464495427419</v>
       </c>
       <c r="AY6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9903.2338947856679</v>
       </c>
       <c r="AZ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10210.234145524022</v>
       </c>
       <c r="BA6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10526.751404035265</v>
       </c>
       <c r="BB6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10853.080697560357</v>
       </c>
       <c r="BC6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11189.526199184727</v>
       </c>
       <c r="BD6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11536.401511359452</v>
       </c>
       <c r="BE6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11894.029958211595</v>
       </c>
       <c r="BF6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12262.744886916153</v>
       </c>
       <c r="BG6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12642.889978410552</v>
       </c>
       <c r="BH6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13034.819567741279</v>
       </c>
       <c r="BI6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13438.898974341257</v>
       </c>
       <c r="BJ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13855.504842545835</v>
       </c>
       <c r="BK6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14285.025492664756</v>
       </c>
       <c r="BL6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14727.861282937361</v>
       </c>
       <c r="BM6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15184.424982708419</v>
       </c>
       <c r="BN6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15655.142157172379</v>
       </c>
       <c r="BO6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16140.451564044721</v>
       </c>
       <c r="BP6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16640.805562530106</v>
       </c>
       <c r="BQ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17156.670534968536</v>
       </c>
       <c r="BR6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17688.527321552559</v>
       </c>
       <c r="BS6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18236.871668520689</v>
       </c>
       <c r="BT6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18802.214690244829</v>
       </c>
       <c r="BU6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19385.083345642419</v>
       </c>
       <c r="BV6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19986.020929357332</v>
       </c>
       <c r="BW6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20605.587578167408</v>
       </c>
       <c r="BX6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21244.360793090596</v>
       </c>
       <c r="BY6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21902.935977676403</v>
       </c>
       <c r="BZ6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22581.926992984369</v>
       </c>
       <c r="CA6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23281.966729766882</v>
       </c>
       <c r="CB6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24003.707698389655</v>
       </c>
       <c r="CC6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24747.822637039731</v>
       </c>
       <c r="CD6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25515.005138787961</v>
       </c>
       <c r="CE6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26305.970298090386</v>
       </c>
       <c r="CF6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27121.455377331185</v>
       </c>
       <c r="CG6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27962.22049402845</v>
       </c>
       <c r="CH6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28829.049329343328</v>
       </c>
       <c r="CI6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29722.749858552968</v>
       </c>
       <c r="CJ6" s="6">
-        <f t="shared" ref="CJ6:DV6" si="1">CI6*1.031</f>
+        <f t="shared" ref="CJ6:DV6" si="5">CI6*1.031</f>
         <v>30644.155104168109</v>
       </c>
       <c r="CK6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>31594.123912397317</v>
       </c>
       <c r="CL6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>32573.541753681631</v>
       </c>
       <c r="CM6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33583.321548045758</v>
       </c>
       <c r="CN6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34624.404516035174</v>
       </c>
       <c r="CO6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>35697.761056032265</v>
       </c>
       <c r="CP6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36804.391648769262</v>
       </c>
       <c r="CQ6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>37945.327789881107</v>
       </c>
       <c r="CR6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>39121.632951367421</v>
       </c>
       <c r="CS6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>40334.40357285981</v>
       </c>
       <c r="CT6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41584.770083618459</v>
       </c>
       <c r="CU6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42873.897956210625</v>
       </c>
       <c r="CV6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>44202.988792853153</v>
       </c>
       <c r="CW6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45573.281445431596</v>
       </c>
       <c r="CX6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>46986.053170239975</v>
       </c>
       <c r="CY6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>48442.620818517411</v>
       </c>
       <c r="CZ6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>49944.342063891447</v>
       </c>
       <c r="DA6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>51492.616667872077</v>
       </c>
       <c r="DB6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>53088.887784576109</v>
       </c>
       <c r="DC6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>54734.643305897967</v>
       </c>
       <c r="DD6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>56431.4172483808</v>
       </c>
       <c r="DE6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58180.791183080597</v>
       </c>
       <c r="DF6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59984.395709756092</v>
       </c>
       <c r="DG6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>61843.911976758529</v>
       </c>
       <c r="DH6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>63761.073248038039</v>
       </c>
       <c r="DI6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65737.666518727216</v>
       </c>
       <c r="DJ6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>67775.53418080775</v>
       </c>
       <c r="DK6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69876.57574041278</v>
       </c>
       <c r="DL6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72042.749588365565</v>
       </c>
       <c r="DM6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>74276.074825604897</v>
       </c>
       <c r="DN6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>76578.633145198648</v>
       </c>
       <c r="DO6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78952.570772699793</v>
       </c>
       <c r="DP6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>81400.100466653486</v>
       </c>
       <c r="DQ6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>83923.50358111973</v>
       </c>
       <c r="DR6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>86525.132192134435</v>
       </c>
       <c r="DS6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89207.411290090589</v>
       </c>
       <c r="DT6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>91972.841040083396</v>
       </c>
       <c r="DU6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>94823.999112325968</v>
       </c>
       <c r="DV6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>97763.543084808058</v>
       </c>
       <c r="DW6" s="6">
-        <f t="shared" ref="DW6" si="2">DV6*1.031</f>
+        <f t="shared" ref="DW6" si="6">DV6*1.031</f>
         <v>100794.2129204371</v>
       </c>
       <c r="DX6" s="6">
-        <f t="shared" ref="DX6" si="3">DW6*1.031</f>
+        <f t="shared" ref="DX6" si="7">DW6*1.031</f>
         <v>103918.83352097064</v>
       </c>
       <c r="DY6" s="6">
-        <f t="shared" ref="DY6" si="4">DX6*1.031</f>
+        <f t="shared" ref="DY6" si="8">DX6*1.031</f>
         <v>107140.31736012072</v>
       </c>
       <c r="DZ6" s="6">
-        <f t="shared" ref="DZ6" si="5">DY6*1.031</f>
+        <f t="shared" ref="DZ6" si="9">DY6*1.031</f>
         <v>110461.66719828446</v>
       </c>
       <c r="EA6" s="6">
-        <f t="shared" ref="EA6" si="6">DZ6*1.031</f>
+        <f t="shared" ref="EA6" si="10">DZ6*1.031</f>
         <v>113885.97888143126</v>
       </c>
       <c r="EB6" s="6">
-        <f t="shared" ref="EB6" si="7">EA6*1.031</f>
+        <f t="shared" ref="EB6" si="11">EA6*1.031</f>
         <v>117416.44422675563</v>
       </c>
       <c r="EC6" s="6">
-        <f t="shared" ref="EC6" si="8">EB6*1.031</f>
+        <f t="shared" ref="EC6" si="12">EB6*1.031</f>
         <v>121056.35399778505</v>
       </c>
       <c r="ED6" s="6">
-        <f t="shared" ref="ED6" si="9">EC6*1.031</f>
+        <f t="shared" ref="ED6" si="13">EC6*1.031</f>
         <v>124809.10097171637</v>
       </c>
       <c r="EE6" s="6">
-        <f t="shared" ref="EE6" si="10">ED6*1.031</f>
+        <f t="shared" ref="EE6" si="14">ED6*1.031</f>
         <v>128678.18310183956</v>
       </c>
       <c r="EF6" s="6">
-        <f t="shared" ref="EF6" si="11">EE6*1.031</f>
+        <f t="shared" ref="EF6" si="15">EE6*1.031</f>
         <v>132667.20677799659</v>
       </c>
       <c r="EG6" s="6">
-        <f t="shared" ref="EG6" si="12">EF6*1.031</f>
+        <f t="shared" ref="EG6" si="16">EF6*1.031</f>
         <v>136779.89018811448</v>
       </c>
       <c r="EH6" s="6">
-        <f t="shared" ref="EH6" si="13">EG6*1.031</f>
+        <f t="shared" ref="EH6" si="17">EG6*1.031</f>
         <v>141020.06678394604</v>
       </c>
       <c r="EI6" s="6">
-        <f t="shared" ref="EI6" si="14">EH6*1.031</f>
+        <f t="shared" ref="EI6" si="18">EH6*1.031</f>
         <v>145391.68885424835</v>
       </c>
       <c r="EJ6" s="6">
-        <f t="shared" ref="EJ6" si="15">EI6*1.031</f>
+        <f t="shared" ref="EJ6" si="19">EI6*1.031</f>
         <v>149898.83120873003</v>
       </c>
       <c r="EK6" s="6">
-        <f t="shared" ref="EK6" si="16">EJ6*1.031</f>
+        <f t="shared" ref="EK6" si="20">EJ6*1.031</f>
         <v>154545.69497620064</v>
       </c>
       <c r="EL6" s="6">
-        <f t="shared" ref="EL6" si="17">EK6*1.031</f>
+        <f t="shared" ref="EL6" si="21">EK6*1.031</f>
         <v>159336.61152046284</v>
       </c>
     </row>
@@ -1497,6 +1503,9 @@
       <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="M8">
+        <v>37000</v>
+      </c>
     </row>
     <row r="9" spans="2:142" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
@@ -1668,7 +1677,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1750,15 @@
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="11"/>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="11"/>
@@ -1838,8 +1855,9 @@
     <hyperlink ref="E15" r:id="rId1" location=":~:text=In%20the%20survey%20period%2C%20the,details%20in%20the%20current%20study." xr:uid="{2DCC1572-BE96-4534-A369-2E3605CE7D38}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{91BBEB2D-8CEB-4B06-A799-C229CA9301A6}"/>
     <hyperlink ref="E9" r:id="rId3" display="Bennett, Elizabeth A., and Janina Grabs. &quot;How can sustainable business models distribute value more equitably in global value chains? Introducing “value chain profit sharing” as an emerging alternative to fair trade, direct trade, or solidarity trade.&quot; Business Ethics, the Environment &amp; Responsibility 34, no. 2 (2025): 581-601." xr:uid="{555E7642-78AB-4ECE-A84D-84F0ACA3B9DF}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{CDAE9846-2763-4B0D-8FEB-EB6ABE8503A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>